--- a/t.xlsx
+++ b/t.xlsx
@@ -2,14 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\progr\OneDrive\바탕 화면\nonWeb\ChoCell\crud_automation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +182,66 @@
   </si>
   <si>
     <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">잔나비 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Boys </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김준수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서태지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,13 +319,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -534,9 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -626,6 +700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -850,6 +925,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -938,4 +1014,226 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1">
+        <v>8</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>22</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>19</v>
+      </c>
+      <c r="G1">
+        <v>23</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>17</v>
+      </c>
+      <c r="J1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>